--- a/data/fmps/pfmc/data/GMT015-final specifications-2024.xlsx
+++ b/data/fmps/pfmc/data/GMT015-final specifications-2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/cc_allocation/data/fmps/pfmc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34A911D4-E418-4C4C-9270-B3AE6410F6C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E680B99A-6184-314B-B9BA-3D6F760FD7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{A0BE814A-C60E-F44C-BA7A-5A26102B6B13}"/>
   </bookViews>
@@ -1719,7 +1719,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="Q192" sqref="Q192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
